--- a/PROYEK3_vmart/Backlog_Proyek3.xlsx
+++ b/PROYEK3_vmart/Backlog_Proyek3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pembagian Tugas Proyek3" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
   <si>
     <t xml:space="preserve">1 kelompok </t>
   </si>
@@ -43,9 +43,6 @@
     <t>mitra</t>
   </si>
   <si>
-    <t>Desa Dermayu</t>
-  </si>
-  <si>
     <t>Pembagian Tugas</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>checkout</t>
   </si>
   <si>
-    <t>Kupon Belanja</t>
-  </si>
-  <si>
     <t>Pembayaran melalui tf Bank</t>
   </si>
   <si>
@@ -398,13 +392,187 @@
   </si>
   <si>
     <t>Aplikasi Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. </t>
+  </si>
+  <si>
+    <t>Item Pekerjaan yang Diselesaikan</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Proses</t>
+  </si>
+  <si>
+    <t>Selesai</t>
+  </si>
+  <si>
+    <t>Riset/diskusi</t>
+  </si>
+  <si>
+    <t>Pencarian mitra Proposal</t>
+  </si>
+  <si>
+    <t>Flowchart Transaksi</t>
+  </si>
+  <si>
+    <t>Diagram Use Case</t>
+  </si>
+  <si>
+    <t>Diagram Class Diagram Admin</t>
+  </si>
+  <si>
+    <t>Diagram Class Diagram Customer</t>
+  </si>
+  <si>
+    <t>Diagram Konteks</t>
+  </si>
+  <si>
+    <t>ERD  Pembuatan Database</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup register Web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup login Web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup dashboard Web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup pesanan Web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup pembayaran Web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup review user Web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup profile user Web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup landing page Web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup admin web</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup register Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup login Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup home Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup keranjang belanja Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup konfirmasi pembayaran Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup tentang kami Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup akun Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup kontak Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup order Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  Design mockup keranajang Mobile</t>
+  </si>
+  <si>
+    <t>Membuat  halaman register Mobile</t>
+  </si>
+  <si>
+    <t>Membuat  halaman login Mobile</t>
+  </si>
+  <si>
+    <t>Membuat  halaman home Mobile</t>
+  </si>
+  <si>
+    <t>Membuat  halaman keranjang belanja Mobile</t>
+  </si>
+  <si>
+    <t>Membuat  halaman konfirmasi pembayaran Mobile</t>
+  </si>
+  <si>
+    <t>Membuat halaman tentang kami Mobile</t>
+  </si>
+  <si>
+    <t>Membuat  halaman akun Mobile</t>
+  </si>
+  <si>
+    <t>Pembuatan  halaman kontak Mobile</t>
+  </si>
+  <si>
+    <t>Membuat  halaman order Mobile</t>
+  </si>
+  <si>
+    <t>Membuat  halaman keranajang Mobile</t>
+  </si>
+  <si>
+    <t>Membuat register Web</t>
+  </si>
+  <si>
+    <t>Membuat login Web</t>
+  </si>
+  <si>
+    <t>Membuat halaman Dashboard admin Web</t>
+  </si>
+  <si>
+    <t>Membuat halaman pembayaran Web</t>
+  </si>
+  <si>
+    <t>CRUD pembayaran Web</t>
+  </si>
+  <si>
+    <t>Membuat halaman Ketegori Web</t>
+  </si>
+  <si>
+    <t>CRUD kategori produk admin Web</t>
+  </si>
+  <si>
+    <t>Membuat halaman pesanan Web</t>
+  </si>
+  <si>
+    <t>CRUD pesanan Web</t>
+  </si>
+  <si>
+    <t>Membuat halaman review pelanggan Web</t>
+  </si>
+  <si>
+    <t>Membuat halaman profile user Web</t>
+  </si>
+  <si>
+    <t>CRUD profile user Web</t>
+  </si>
+  <si>
+    <t>Membuat landing page Web</t>
+  </si>
+  <si>
+    <t>Membuat Laporan Proyek</t>
+  </si>
+  <si>
+    <t>Membuat Proposal Proyek</t>
+  </si>
+  <si>
+    <t>Keterangan :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,8 +602,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +662,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,29 +786,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,18 +848,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -686,6 +855,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,11 +1184,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
@@ -985,7 +1200,7 @@
     <col min="13" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1211,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1006,510 +1221,503 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="D7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="F13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="F16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="F17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="F13" s="20" t="s">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="F18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="F19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="F20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="F21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="F24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="F25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="F14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="H25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="F15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="18" t="s">
+      <c r="M25" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="F26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="18" t="s">
+      <c r="G26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="F16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="18" t="s">
+      <c r="H26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="F27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="18" t="s">
+      <c r="G27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="F17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="23" t="s">
+      <c r="H27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="F28" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18" t="s">
+      <c r="G28" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="F18" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="21" t="s">
+      <c r="H28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="F29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18" t="s">
+      <c r="G29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="F19" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="23" t="s">
+      <c r="H29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="F30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18" t="s">
+      <c r="G30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="23" t="s">
+      <c r="H30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1528,10 +1736,10 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="5.140625" customWidth="1"/>
@@ -1550,318 +1758,318 @@
     <col min="18" max="18" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="C3" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="30" t="s">
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="25">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3</v>
+      </c>
+      <c r="F4" s="25">
+        <v>4</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25">
+        <v>2</v>
+      </c>
+      <c r="I4" s="25">
+        <v>3</v>
+      </c>
+      <c r="J4" s="25">
+        <v>4</v>
+      </c>
+      <c r="K4" s="25">
+        <v>1</v>
+      </c>
+      <c r="L4" s="25">
+        <v>2</v>
+      </c>
+      <c r="M4" s="25">
+        <v>3</v>
+      </c>
+      <c r="N4" s="25">
+        <v>4</v>
+      </c>
+      <c r="O4" s="25">
+        <v>1</v>
+      </c>
+      <c r="P4" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>3</v>
+      </c>
+      <c r="R4" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="30" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33">
-        <v>2</v>
-      </c>
-      <c r="E4" s="33">
-        <v>3</v>
-      </c>
-      <c r="F4" s="33">
-        <v>4</v>
-      </c>
-      <c r="G4" s="33">
-        <v>1</v>
-      </c>
-      <c r="H4" s="33">
-        <v>2</v>
-      </c>
-      <c r="I4" s="33">
-        <v>3</v>
-      </c>
-      <c r="J4" s="33">
-        <v>4</v>
-      </c>
-      <c r="K4" s="33">
-        <v>1</v>
-      </c>
-      <c r="L4" s="33">
-        <v>2</v>
-      </c>
-      <c r="M4" s="33">
-        <v>3</v>
-      </c>
-      <c r="N4" s="33">
-        <v>4</v>
-      </c>
-      <c r="O4" s="33">
-        <v>1</v>
-      </c>
-      <c r="P4" s="33">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="33">
-        <v>3</v>
-      </c>
-      <c r="R4" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="19"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="O3:R3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1869,14 +2077,605 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="43"/>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="43"/>
+      <c r="F6" s="44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="43"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="43"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="43"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="43"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="43"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="43"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="43"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="41">
+        <v>16</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="43"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="41">
+        <v>17</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="43"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="41">
+        <v>18</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="43"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="41">
+        <v>19</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="43"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="41">
+        <v>20</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="43"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="41">
+        <v>21</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="43"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="41">
+        <v>22</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="41">
+        <v>23</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="43"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="41">
+        <v>24</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="43"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="41">
+        <v>25</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="41">
+        <v>26</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="43"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="41">
+        <v>27</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="43"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="41">
+        <v>28</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="43"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="41">
+        <v>29</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="43"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="41">
+        <v>30</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="43"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="41">
+        <v>31</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="43"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="41">
+        <v>32</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="43"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="41">
+        <v>33</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="43"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="41">
+        <v>34</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="43"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="41">
+        <v>35</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="43"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="41">
+        <v>36</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="41">
+        <v>37</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="43"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="41">
+        <v>38</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="43"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="43"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="41">
+        <v>40</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="43"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="41">
+        <v>41</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="43"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="41">
+        <v>42</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="43"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="41">
+        <v>43</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="43"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="41">
+        <v>44</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="43"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="41">
+        <v>45</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="43"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="41">
+        <v>46</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="43"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="41">
+        <v>47</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="43"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="41">
+        <v>48</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="43"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="41">
+        <v>49</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="41"/>
+      <c r="D51" s="43"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="41">
+        <v>50</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="43"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="41">
+        <v>51</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="41"/>
+      <c r="D53" s="43"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="41">
+        <v>52</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="43"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="41">
+        <v>52</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="41"/>
+      <c r="D55" s="43"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="41">
+        <v>53</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="41"/>
+      <c r="D56" s="43"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>